--- a/t_values_final.xlsx
+++ b/t_values_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>12.72869565217388</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>324.1428571428572</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="30">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>221</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="36">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="37">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="38">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="39">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>61</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>42</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="57">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="59">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>147</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61">
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>79</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="65">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66">
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>87.38</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="74">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>112.62</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>7</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="79">
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80">
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="82">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="93">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="97">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>358</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>177</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102">
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>67</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="105">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>176</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="107">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="109">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>217.38</v>
+        <v>268</v>
       </c>
     </row>
     <row r="112">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="115">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>34</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="116">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="120">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="122">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="123">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>12</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126">
@@ -2322,1462 +2322,472 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>artificial</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>artificial</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>52</v>
+        <v>114</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>217.3913043478261</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>45.18181818181819</v>
+        <v>250</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>94</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>92</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>70</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>71</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>232.3030303030303</v>
+        <v>35</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>90</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>83</v>
+        <v>221</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>106</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="C159" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C160" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="C161" t="n">
-        <v>267.8571428571428</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="C162" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C163" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="C165" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="C167" t="n">
-        <v>98.41272727272727</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="C168" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="C169" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C170" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="C171" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="C172" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C173" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="C174" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="C175" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="C176" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="C177" t="n">
-        <v>81.81818181818181</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C178" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="C179" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C180" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C181" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C182" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C183" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="C184" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="C185" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="C186" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="C187" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C188" t="n">
-        <v>29.05</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C189" t="n">
-        <v>26.3045</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C190" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C191" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="C192" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="C193" t="n">
-        <v>69.69696969696969</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C194" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C195" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="C196" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="C197" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="C198" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="C199" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="C200" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C201" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C202" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="C203" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C204" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="C205" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="C206" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="C207" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="C208" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="C209" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="C210" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="C211" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="C212" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="C213" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="C214" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="C215" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="C216" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="C217" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="C218" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="C219" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="C220" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="C221" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="C222" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="C223" t="n">
-        <v>81</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/t_values_final.xlsx
+++ b/t_values_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>artificial</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2337,163 +2337,163 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>114</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>59</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>250</v>
+        <v>59</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>23</v>
+        <v>80</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>80</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>94</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2502,48 +2502,48 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>-0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
           <t>35</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>33</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -2553,202 +2553,202 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>64</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>175</v>
+        <v>64</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
       <c r="C144" t="n">
-        <v>13</v>
+        <v>175</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>70</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>71</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>90</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>96</v>
+        <v>58</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>221</v>
+        <v>92</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>23</v>
+        <v>221</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2757,36 +2757,51 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
           <t>106</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="C157" t="n">
+      <c r="C158" t="n">
         <v>-0</v>
       </c>
     </row>
